--- a/resources/char category.xlsx
+++ b/resources/char category.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Godot Projects\sinotable\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B5D9AE-AB89-4400-B247-4CAACA1E737E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB0551-4138-4B44-AB5E-CFC101E05311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="432" windowWidth="14532" windowHeight="16524" xr2:uid="{62EE73C5-7040-4404-BEF6-C138B00F4FC2}"/>
+    <workbookView xWindow="12348" yWindow="1308" windowWidth="14532" windowHeight="16524" xr2:uid="{62EE73C5-7040-4404-BEF6-C138B00F4FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,12 +149,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,10 +211,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D16AC-AC49-4A99-9222-16FFD04977A3}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +550,7 @@
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="str">
         <f>"&lt;"&amp;B1&amp;"&gt;"</f>
         <v>&lt;&gt;</v>
@@ -515,7 +564,7 @@
         <v>{}</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +584,7 @@
         <v>{n.m.}</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +604,7 @@
         <v>{n.p.}</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -575,7 +624,7 @@
         <v>{m.w.}</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -595,7 +644,7 @@
         <v>{suf.}</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -615,7 +664,7 @@
         <v>{q.p.}</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -635,7 +684,7 @@
         <v>{p.p.}</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -654,8 +703,11 @@
         <f t="shared" si="2"/>
         <v>{exc.}</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -674,8 +726,9 @@
         <f t="shared" si="2"/>
         <v>{ono.}</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -694,8 +747,9 @@
         <f t="shared" si="2"/>
         <v>{unit}</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -715,7 +769,7 @@
         <v>{bound}</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -734,8 +788,9 @@
         <f t="shared" ref="E12" si="5">"{"&amp;B12&amp;"}"</f>
         <v>{imperial}</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -755,7 +810,7 @@
         <v>{archaic}</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -775,7 +830,7 @@
         <v>{plant}</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -795,7 +850,7 @@
         <v>{animal}</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -814,8 +869,9 @@
         <f t="shared" si="2"/>
         <v>{horse}</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -834,8 +890,9 @@
         <f t="shared" si="2"/>
         <v>{tree}</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -854,8 +911,9 @@
         <f t="shared" si="2"/>
         <v>{surname}</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -875,7 +933,7 @@
         <v>{food}</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -895,7 +953,7 @@
         <v>{river}</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -915,7 +973,7 @@
         <v>{mount}</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -935,7 +993,7 @@
         <v>{place}</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -955,7 +1013,7 @@
         <v>{element}</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -975,7 +1033,7 @@
         <v>{color}</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -995,7 +1053,7 @@
         <v>{ethnicity}</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;&gt;</v>
@@ -1009,7 +1067,7 @@
         <v>{}</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;&gt;</v>
@@ -1023,7 +1081,7 @@
         <v>{}</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;&gt;</v>
@@ -1037,7 +1095,7 @@
         <v>{}</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;&gt;</v>
@@ -1051,7 +1109,7 @@
         <v>{}</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;&gt;</v>

--- a/resources/char category.xlsx
+++ b/resources/char category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Godot Projects\sinotable\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB0551-4138-4B44-AB5E-CFC101E05311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF26AF54-8E2D-4E67-A0CE-8A5F220AE31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="1308" windowWidth="14532" windowHeight="16524" xr2:uid="{62EE73C5-7040-4404-BEF6-C138B00F4FC2}"/>
+    <workbookView minimized="1" xWindow="5784" yWindow="0" windowWidth="14532" windowHeight="16524" xr2:uid="{62EE73C5-7040-4404-BEF6-C138B00F4FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +546,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,6 +775,7 @@
         <f t="shared" si="2"/>
         <v>{bound}</v>
       </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
